--- a/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/Contracts/ambushconvoy/5/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/Contracts/ambushconvoy/5/LocalizationDef.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="431">
   <si>
     <t>AmbushConvoy_AssetDenial_NEW.contractName</t>
   </si>
@@ -180,6 +180,11 @@
   </si>
   <si>
     <t>AmbushConvoy_AssetDenial_NEW.shortDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A {TEAM_TAR.FactionDef.Name} detachment of fire support vehicles is on the move to a strategic location. {TEAM_EMP.FactionDef.Demonym} would prefer that they do not reach their destination.
+---
+A {TEAM_TAR.FactionDef.Demonym} detachment of fire support vehicles is on the move to a strategic location. {TEAM_EMP.FactionDef.Name} would prefer that they do not reach their destination.</t>
   </si>
   <si>
     <t>A {TEAM_TAR.FactionDef.Name} detachment of fire support vehicles is on the move to a strategic location. {TEAM_EMP.FactionDef.Demonym} would prefer that they do not reach their destination.</t>
@@ -1315,12 +1320,17 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000" tint="0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1335,8 +1345,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1731,29 +1742,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
+    <row r="28" s="1" customFormat="1">
+      <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="0" t="s">
+      <c r="C28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>2</v>
@@ -1761,13 +1772,13 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>2</v>
@@ -1775,13 +1786,13 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>2</v>
@@ -1789,13 +1800,13 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>2</v>
@@ -1803,13 +1814,13 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>2</v>
@@ -1817,13 +1828,13 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>2</v>
@@ -1831,13 +1842,13 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>2</v>
@@ -1845,13 +1856,13 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>2</v>
@@ -1859,13 +1870,13 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>2</v>
@@ -1873,13 +1884,13 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>2</v>
@@ -1887,13 +1898,13 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>2</v>
@@ -1901,13 +1912,13 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>2</v>
@@ -1915,13 +1926,13 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>2</v>
@@ -1929,13 +1940,13 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>2</v>
@@ -1943,13 +1954,13 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>2</v>
@@ -1957,13 +1968,13 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>2</v>
@@ -1971,13 +1982,13 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>2</v>
@@ -1985,7 +1996,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>32</v>
@@ -1999,7 +2010,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>34</v>
@@ -2013,7 +2024,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>36</v>
@@ -2027,13 +2038,13 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>2</v>
@@ -2041,7 +2052,7 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>40</v>
@@ -2055,7 +2066,7 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>42</v>
@@ -2069,7 +2080,7 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>44</v>
@@ -2083,7 +2094,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>46</v>
@@ -2097,7 +2108,7 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>48</v>
@@ -2111,7 +2122,7 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>50</v>
@@ -2125,7 +2136,7 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>52</v>
@@ -2139,7 +2150,7 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>54</v>
@@ -2153,13 +2164,13 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>2</v>
@@ -2167,13 +2178,13 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>2</v>
@@ -2181,13 +2192,13 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>2</v>
@@ -2195,13 +2206,13 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>2</v>
@@ -2209,13 +2220,13 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>2</v>
@@ -2223,13 +2234,13 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>2</v>
@@ -2237,13 +2248,13 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>2</v>
@@ -2251,13 +2262,13 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>2</v>
@@ -2265,13 +2276,13 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>2</v>
@@ -2279,13 +2290,13 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>2</v>
@@ -2293,13 +2304,13 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>2</v>
@@ -2307,13 +2318,13 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>2</v>
@@ -2321,13 +2332,13 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>2</v>
@@ -2335,13 +2346,13 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>2</v>
@@ -2349,13 +2360,13 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>2</v>
@@ -2363,13 +2374,13 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>2</v>
@@ -2377,7 +2388,7 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>32</v>
@@ -2391,7 +2402,7 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>34</v>
@@ -2405,7 +2416,7 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>36</v>
@@ -2419,13 +2430,13 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>2</v>
@@ -2433,7 +2444,7 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>40</v>
@@ -2447,7 +2458,7 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>42</v>
@@ -2461,7 +2472,7 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>44</v>
@@ -2475,7 +2486,7 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>46</v>
@@ -2489,7 +2500,7 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>48</v>
@@ -2503,7 +2514,7 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>50</v>
@@ -2517,7 +2528,7 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>52</v>
@@ -2531,7 +2542,7 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>54</v>
@@ -2545,13 +2556,13 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>2</v>
@@ -2559,13 +2570,13 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>2</v>
@@ -2573,13 +2584,13 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>2</v>
@@ -2587,13 +2598,13 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>2</v>
@@ -2601,13 +2612,13 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>2</v>
@@ -2615,13 +2626,13 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>2</v>
@@ -2629,13 +2640,13 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>2</v>
@@ -2643,13 +2654,13 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>2</v>
@@ -2657,13 +2668,13 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>2</v>
@@ -2671,13 +2682,13 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>2</v>
@@ -2685,13 +2696,13 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>2</v>
@@ -2699,13 +2710,13 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>2</v>
@@ -2713,13 +2724,13 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>2</v>
@@ -2727,7 +2738,7 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>26</v>
@@ -2741,13 +2752,13 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>2</v>
@@ -2755,13 +2766,13 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>2</v>
@@ -2769,7 +2780,7 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>32</v>
@@ -2783,7 +2794,7 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>34</v>
@@ -2797,7 +2808,7 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>36</v>
@@ -2811,13 +2822,13 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>2</v>
@@ -2825,7 +2836,7 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>40</v>
@@ -2839,7 +2850,7 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>42</v>
@@ -2853,7 +2864,7 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B108" s="0" t="s">
         <v>44</v>
@@ -2867,7 +2878,7 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>46</v>
@@ -2881,7 +2892,7 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>48</v>
@@ -2895,7 +2906,7 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>50</v>
@@ -2909,7 +2920,7 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>52</v>
@@ -2923,7 +2934,7 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>54</v>
@@ -2937,13 +2948,13 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>2</v>
@@ -2951,13 +2962,13 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>2</v>
@@ -2965,13 +2976,13 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>2</v>
@@ -2979,13 +2990,13 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>2</v>
@@ -2993,13 +3004,13 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>2</v>
@@ -3007,13 +3018,13 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>2</v>
@@ -3021,13 +3032,13 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>2</v>
@@ -3035,13 +3046,13 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D121" s="0" t="s">
         <v>2</v>
@@ -3049,13 +3060,13 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D122" s="0" t="s">
         <v>2</v>
@@ -3063,13 +3074,13 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D123" s="0" t="s">
         <v>2</v>
@@ -3077,13 +3088,13 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D124" s="0" t="s">
         <v>2</v>
@@ -3091,13 +3102,13 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D125" s="0" t="s">
         <v>2</v>
@@ -3105,13 +3116,13 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D126" s="0" t="s">
         <v>2</v>
@@ -3119,7 +3130,7 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B127" s="0" t="s">
         <v>26</v>
@@ -3133,13 +3144,13 @@
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D128" s="0" t="s">
         <v>2</v>
@@ -3147,13 +3158,13 @@
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>2</v>
@@ -3161,7 +3172,7 @@
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B130" s="0" t="s">
         <v>32</v>
@@ -3175,7 +3186,7 @@
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B131" s="0" t="s">
         <v>34</v>
@@ -3189,7 +3200,7 @@
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B132" s="0" t="s">
         <v>36</v>
@@ -3203,13 +3214,13 @@
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D133" s="0" t="s">
         <v>2</v>
@@ -3217,7 +3228,7 @@
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B134" s="0" t="s">
         <v>40</v>
@@ -3231,7 +3242,7 @@
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B135" s="0" t="s">
         <v>42</v>
@@ -3245,7 +3256,7 @@
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B136" s="0" t="s">
         <v>44</v>
@@ -3259,7 +3270,7 @@
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B137" s="0" t="s">
         <v>46</v>
@@ -3273,7 +3284,7 @@
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B138" s="0" t="s">
         <v>48</v>
@@ -3287,7 +3298,7 @@
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B139" s="0" t="s">
         <v>50</v>
@@ -3301,7 +3312,7 @@
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B140" s="0" t="s">
         <v>52</v>
@@ -3315,7 +3326,7 @@
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B141" s="0" t="s">
         <v>54</v>
@@ -3329,13 +3340,13 @@
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D142" s="0" t="s">
         <v>2</v>
@@ -3343,13 +3354,13 @@
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D143" s="0" t="s">
         <v>2</v>
@@ -3357,7 +3368,7 @@
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B144" s="0" t="s">
         <v>4</v>
@@ -3371,7 +3382,7 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B145" s="0" t="s">
         <v>6</v>
@@ -3385,7 +3396,7 @@
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B146" s="0" t="s">
         <v>8</v>
@@ -3399,7 +3410,7 @@
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B147" s="0" t="s">
         <v>10</v>
@@ -3413,13 +3424,13 @@
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D148" s="0" t="s">
         <v>2</v>
@@ -3427,13 +3438,13 @@
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D149" s="0" t="s">
         <v>2</v>
@@ -3441,13 +3452,13 @@
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D150" s="0" t="s">
         <v>2</v>
@@ -3455,13 +3466,13 @@
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D151" s="0" t="s">
         <v>2</v>
@@ -3469,13 +3480,13 @@
     </row>
     <row r="152">
       <c r="A152" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D152" s="0" t="s">
         <v>2</v>
@@ -3483,13 +3494,13 @@
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D153" s="0" t="s">
         <v>2</v>
@@ -3497,13 +3508,13 @@
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D154" s="0" t="s">
         <v>2</v>
@@ -3511,13 +3522,13 @@
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D155" s="0" t="s">
         <v>2</v>
@@ -3525,7 +3536,7 @@
     </row>
     <row r="156">
       <c r="A156" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B156" s="0" t="s">
         <v>20</v>
@@ -3539,13 +3550,13 @@
     </row>
     <row r="157">
       <c r="A157" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D157" s="0" t="s">
         <v>2</v>
@@ -3553,13 +3564,13 @@
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D158" s="0" t="s">
         <v>2</v>
@@ -3567,13 +3578,13 @@
     </row>
     <row r="159">
       <c r="A159" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D159" s="0" t="s">
         <v>2</v>
@@ -3581,13 +3592,13 @@
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D160" s="0" t="s">
         <v>2</v>
@@ -3595,13 +3606,13 @@
     </row>
     <row r="161">
       <c r="A161" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D161" s="0" t="s">
         <v>2</v>
@@ -3609,7 +3620,7 @@
     </row>
     <row r="162">
       <c r="A162" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B162" s="0" t="s">
         <v>32</v>
@@ -3623,7 +3634,7 @@
     </row>
     <row r="163">
       <c r="A163" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B163" s="0" t="s">
         <v>34</v>
@@ -3637,7 +3648,7 @@
     </row>
     <row r="164">
       <c r="A164" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B164" s="0" t="s">
         <v>36</v>
@@ -3651,7 +3662,7 @@
     </row>
     <row r="165">
       <c r="A165" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B165" s="0" t="s">
         <v>38</v>
@@ -3665,7 +3676,7 @@
     </row>
     <row r="166">
       <c r="A166" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B166" s="0" t="s">
         <v>40</v>
@@ -3679,7 +3690,7 @@
     </row>
     <row r="167">
       <c r="A167" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B167" s="0" t="s">
         <v>42</v>
@@ -3693,7 +3704,7 @@
     </row>
     <row r="168">
       <c r="A168" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B168" s="0" t="s">
         <v>44</v>
@@ -3707,7 +3718,7 @@
     </row>
     <row r="169">
       <c r="A169" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B169" s="0" t="s">
         <v>46</v>
@@ -3721,7 +3732,7 @@
     </row>
     <row r="170">
       <c r="A170" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B170" s="0" t="s">
         <v>48</v>
@@ -3735,7 +3746,7 @@
     </row>
     <row r="171">
       <c r="A171" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B171" s="0" t="s">
         <v>50</v>
@@ -3749,7 +3760,7 @@
     </row>
     <row r="172">
       <c r="A172" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B172" s="0" t="s">
         <v>52</v>
@@ -3763,7 +3774,7 @@
     </row>
     <row r="173">
       <c r="A173" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B173" s="0" t="s">
         <v>54</v>
@@ -3777,13 +3788,13 @@
     </row>
     <row r="174">
       <c r="A174" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D174" s="0" t="s">
         <v>2</v>
@@ -3791,13 +3802,13 @@
     </row>
     <row r="175">
       <c r="A175" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D175" s="0" t="s">
         <v>2</v>
@@ -3805,7 +3816,7 @@
     </row>
     <row r="176">
       <c r="A176" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B176" s="0" t="s">
         <v>4</v>
@@ -3819,7 +3830,7 @@
     </row>
     <row r="177">
       <c r="A177" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B177" s="0" t="s">
         <v>6</v>
@@ -3833,7 +3844,7 @@
     </row>
     <row r="178">
       <c r="A178" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B178" s="0" t="s">
         <v>8</v>
@@ -3847,7 +3858,7 @@
     </row>
     <row r="179">
       <c r="A179" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B179" s="0" t="s">
         <v>10</v>
@@ -3861,13 +3872,13 @@
     </row>
     <row r="180">
       <c r="A180" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D180" s="0" t="s">
         <v>2</v>
@@ -3875,7 +3886,7 @@
     </row>
     <row r="181">
       <c r="A181" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B181" s="0" t="s">
         <v>14</v>
@@ -3889,13 +3900,13 @@
     </row>
     <row r="182">
       <c r="A182" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D182" s="0" t="s">
         <v>2</v>
@@ -3903,7 +3914,7 @@
     </row>
     <row r="183">
       <c r="A183" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B183" s="0" t="s">
         <v>18</v>
@@ -3917,7 +3928,7 @@
     </row>
     <row r="184">
       <c r="A184" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B184" s="0" t="s">
         <v>20</v>
@@ -3931,13 +3942,13 @@
     </row>
     <row r="185">
       <c r="A185" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D185" s="0" t="s">
         <v>2</v>
@@ -3945,7 +3956,7 @@
     </row>
     <row r="186">
       <c r="A186" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B186" s="0" t="s">
         <v>24</v>
@@ -3959,7 +3970,7 @@
     </row>
     <row r="187">
       <c r="A187" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B187" s="0" t="s">
         <v>26</v>
@@ -3973,7 +3984,7 @@
     </row>
     <row r="188">
       <c r="A188" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B188" s="0" t="s">
         <v>28</v>
@@ -3987,13 +3998,13 @@
     </row>
     <row r="189">
       <c r="A189" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D189" s="0" t="s">
         <v>2</v>
@@ -4001,7 +4012,7 @@
     </row>
     <row r="190">
       <c r="A190" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B190" s="0" t="s">
         <v>32</v>
@@ -4015,7 +4026,7 @@
     </row>
     <row r="191">
       <c r="A191" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B191" s="0" t="s">
         <v>34</v>
@@ -4029,7 +4040,7 @@
     </row>
     <row r="192">
       <c r="A192" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B192" s="0" t="s">
         <v>36</v>
@@ -4043,7 +4054,7 @@
     </row>
     <row r="193">
       <c r="A193" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B193" s="0" t="s">
         <v>38</v>
@@ -4057,7 +4068,7 @@
     </row>
     <row r="194">
       <c r="A194" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B194" s="0" t="s">
         <v>40</v>
@@ -4071,7 +4082,7 @@
     </row>
     <row r="195">
       <c r="A195" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B195" s="0" t="s">
         <v>42</v>
@@ -4085,7 +4096,7 @@
     </row>
     <row r="196">
       <c r="A196" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B196" s="0" t="s">
         <v>44</v>
@@ -4099,7 +4110,7 @@
     </row>
     <row r="197">
       <c r="A197" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B197" s="0" t="s">
         <v>46</v>
@@ -4113,7 +4124,7 @@
     </row>
     <row r="198">
       <c r="A198" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B198" s="0" t="s">
         <v>48</v>
@@ -4127,7 +4138,7 @@
     </row>
     <row r="199">
       <c r="A199" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B199" s="0" t="s">
         <v>50</v>
@@ -4141,7 +4152,7 @@
     </row>
     <row r="200">
       <c r="A200" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B200" s="0" t="s">
         <v>52</v>
@@ -4155,7 +4166,7 @@
     </row>
     <row r="201">
       <c r="A201" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B201" s="0" t="s">
         <v>54</v>
@@ -4169,13 +4180,13 @@
     </row>
     <row r="202">
       <c r="A202" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D202" s="0" t="s">
         <v>2</v>
@@ -4183,13 +4194,13 @@
     </row>
     <row r="203">
       <c r="A203" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D203" s="0" t="s">
         <v>2</v>
@@ -4197,13 +4208,13 @@
     </row>
     <row r="204">
       <c r="A204" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D204" s="0" t="s">
         <v>2</v>
@@ -4211,13 +4222,13 @@
     </row>
     <row r="205">
       <c r="A205" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D205" s="0" t="s">
         <v>2</v>
@@ -4225,13 +4236,13 @@
     </row>
     <row r="206">
       <c r="A206" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D206" s="0" t="s">
         <v>2</v>
@@ -4239,13 +4250,13 @@
     </row>
     <row r="207">
       <c r="A207" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D207" s="0" t="s">
         <v>2</v>
@@ -4253,13 +4264,13 @@
     </row>
     <row r="208">
       <c r="A208" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D208" s="0" t="s">
         <v>2</v>
@@ -4267,13 +4278,13 @@
     </row>
     <row r="209">
       <c r="A209" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D209" s="0" t="s">
         <v>2</v>
@@ -4281,13 +4292,13 @@
     </row>
     <row r="210">
       <c r="A210" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D210" s="0" t="s">
         <v>2</v>
@@ -4295,13 +4306,13 @@
     </row>
     <row r="211">
       <c r="A211" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D211" s="0" t="s">
         <v>2</v>
@@ -4309,13 +4320,13 @@
     </row>
     <row r="212">
       <c r="A212" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D212" s="0" t="s">
         <v>2</v>
@@ -4323,13 +4334,13 @@
     </row>
     <row r="213">
       <c r="A213" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D213" s="0" t="s">
         <v>2</v>
@@ -4337,13 +4348,13 @@
     </row>
     <row r="214">
       <c r="A214" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D214" s="0" t="s">
         <v>2</v>
@@ -4351,13 +4362,13 @@
     </row>
     <row r="215">
       <c r="A215" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D215" s="0" t="s">
         <v>2</v>
@@ -4365,13 +4376,13 @@
     </row>
     <row r="216">
       <c r="A216" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D216" s="0" t="s">
         <v>2</v>
@@ -4379,13 +4390,13 @@
     </row>
     <row r="217">
       <c r="A217" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D217" s="0" t="s">
         <v>2</v>
@@ -4393,7 +4404,7 @@
     </row>
     <row r="218">
       <c r="A218" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B218" s="0" t="s">
         <v>32</v>
@@ -4407,7 +4418,7 @@
     </row>
     <row r="219">
       <c r="A219" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B219" s="0" t="s">
         <v>34</v>
@@ -4421,7 +4432,7 @@
     </row>
     <row r="220">
       <c r="A220" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B220" s="0" t="s">
         <v>36</v>
@@ -4435,13 +4446,13 @@
     </row>
     <row r="221">
       <c r="A221" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D221" s="0" t="s">
         <v>2</v>
@@ -4449,7 +4460,7 @@
     </row>
     <row r="222">
       <c r="A222" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B222" s="0" t="s">
         <v>40</v>
@@ -4463,7 +4474,7 @@
     </row>
     <row r="223">
       <c r="A223" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B223" s="0" t="s">
         <v>42</v>
@@ -4477,7 +4488,7 @@
     </row>
     <row r="224">
       <c r="A224" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B224" s="0" t="s">
         <v>44</v>
@@ -4491,7 +4502,7 @@
     </row>
     <row r="225">
       <c r="A225" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B225" s="0" t="s">
         <v>46</v>
@@ -4505,7 +4516,7 @@
     </row>
     <row r="226">
       <c r="A226" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B226" s="0" t="s">
         <v>48</v>
@@ -4519,7 +4530,7 @@
     </row>
     <row r="227">
       <c r="A227" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B227" s="0" t="s">
         <v>50</v>
@@ -4533,7 +4544,7 @@
     </row>
     <row r="228">
       <c r="A228" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B228" s="0" t="s">
         <v>52</v>
@@ -4547,7 +4558,7 @@
     </row>
     <row r="229">
       <c r="A229" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B229" s="0" t="s">
         <v>54</v>
@@ -4561,13 +4572,13 @@
     </row>
     <row r="230">
       <c r="A230" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D230" s="0" t="s">
         <v>2</v>
@@ -4575,13 +4586,13 @@
     </row>
     <row r="231">
       <c r="A231" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D231" s="0" t="s">
         <v>2</v>
@@ -4589,13 +4600,13 @@
     </row>
     <row r="232">
       <c r="A232" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D232" s="0" t="s">
         <v>2</v>
@@ -4603,13 +4614,13 @@
     </row>
     <row r="233">
       <c r="A233" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D233" s="0" t="s">
         <v>2</v>
@@ -4617,13 +4628,13 @@
     </row>
     <row r="234">
       <c r="A234" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D234" s="0" t="s">
         <v>2</v>
@@ -4631,13 +4642,13 @@
     </row>
     <row r="235">
       <c r="A235" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D235" s="0" t="s">
         <v>2</v>
@@ -4645,13 +4656,13 @@
     </row>
     <row r="236">
       <c r="A236" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D236" s="0" t="s">
         <v>2</v>
@@ -4659,13 +4670,13 @@
     </row>
     <row r="237">
       <c r="A237" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D237" s="0" t="s">
         <v>2</v>
@@ -4673,13 +4684,13 @@
     </row>
     <row r="238">
       <c r="A238" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D238" s="0" t="s">
         <v>2</v>
@@ -4687,13 +4698,13 @@
     </row>
     <row r="239">
       <c r="A239" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D239" s="0" t="s">
         <v>2</v>
@@ -4701,13 +4712,13 @@
     </row>
     <row r="240">
       <c r="A240" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D240" s="0" t="s">
         <v>2</v>
@@ -4715,13 +4726,13 @@
     </row>
     <row r="241">
       <c r="A241" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D241" s="0" t="s">
         <v>2</v>
@@ -4729,13 +4740,13 @@
     </row>
     <row r="242">
       <c r="A242" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D242" s="0" t="s">
         <v>2</v>
@@ -4743,13 +4754,13 @@
     </row>
     <row r="243">
       <c r="A243" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D243" s="0" t="s">
         <v>2</v>
@@ -4757,13 +4768,13 @@
     </row>
     <row r="244">
       <c r="A244" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D244" s="0" t="s">
         <v>2</v>
@@ -4771,13 +4782,13 @@
     </row>
     <row r="245">
       <c r="A245" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D245" s="0" t="s">
         <v>2</v>
@@ -4785,7 +4796,7 @@
     </row>
     <row r="246">
       <c r="A246" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B246" s="0" t="s">
         <v>32</v>
@@ -4799,7 +4810,7 @@
     </row>
     <row r="247">
       <c r="A247" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B247" s="0" t="s">
         <v>34</v>
@@ -4813,7 +4824,7 @@
     </row>
     <row r="248">
       <c r="A248" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B248" s="0" t="s">
         <v>36</v>
@@ -4827,13 +4838,13 @@
     </row>
     <row r="249">
       <c r="A249" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D249" s="0" t="s">
         <v>2</v>
@@ -4841,7 +4852,7 @@
     </row>
     <row r="250">
       <c r="A250" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B250" s="0" t="s">
         <v>40</v>
@@ -4855,7 +4866,7 @@
     </row>
     <row r="251">
       <c r="A251" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B251" s="0" t="s">
         <v>42</v>
@@ -4869,7 +4880,7 @@
     </row>
     <row r="252">
       <c r="A252" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B252" s="0" t="s">
         <v>44</v>
@@ -4883,7 +4894,7 @@
     </row>
     <row r="253">
       <c r="A253" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B253" s="0" t="s">
         <v>46</v>
@@ -4897,7 +4908,7 @@
     </row>
     <row r="254">
       <c r="A254" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B254" s="0" t="s">
         <v>48</v>
@@ -4911,7 +4922,7 @@
     </row>
     <row r="255">
       <c r="A255" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B255" s="0" t="s">
         <v>50</v>
@@ -4925,7 +4936,7 @@
     </row>
     <row r="256">
       <c r="A256" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B256" s="0" t="s">
         <v>52</v>
@@ -4939,7 +4950,7 @@
     </row>
     <row r="257">
       <c r="A257" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B257" s="0" t="s">
         <v>54</v>
@@ -4953,13 +4964,13 @@
     </row>
     <row r="258">
       <c r="A258" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D258" s="0" t="s">
         <v>2</v>
@@ -4967,13 +4978,13 @@
     </row>
     <row r="259">
       <c r="A259" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D259" s="0" t="s">
         <v>2</v>
@@ -4981,13 +4992,13 @@
     </row>
     <row r="260">
       <c r="A260" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D260" s="0" t="s">
         <v>2</v>
@@ -4995,13 +5006,13 @@
     </row>
     <row r="261">
       <c r="A261" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D261" s="0" t="s">
         <v>2</v>
@@ -5009,13 +5020,13 @@
     </row>
     <row r="262">
       <c r="A262" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D262" s="0" t="s">
         <v>2</v>
@@ -5023,13 +5034,13 @@
     </row>
     <row r="263">
       <c r="A263" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D263" s="0" t="s">
         <v>2</v>
@@ -5037,13 +5048,13 @@
     </row>
     <row r="264">
       <c r="A264" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D264" s="0" t="s">
         <v>2</v>
@@ -5051,13 +5062,13 @@
     </row>
     <row r="265">
       <c r="A265" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D265" s="0" t="s">
         <v>2</v>
@@ -5065,13 +5076,13 @@
     </row>
     <row r="266">
       <c r="A266" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D266" s="0" t="s">
         <v>2</v>
@@ -5079,13 +5090,13 @@
     </row>
     <row r="267">
       <c r="A267" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D267" s="0" t="s">
         <v>2</v>
@@ -5093,13 +5104,13 @@
     </row>
     <row r="268">
       <c r="A268" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D268" s="0" t="s">
         <v>2</v>
@@ -5107,13 +5118,13 @@
     </row>
     <row r="269">
       <c r="A269" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D269" s="0" t="s">
         <v>2</v>
@@ -5121,13 +5132,13 @@
     </row>
     <row r="270">
       <c r="A270" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D270" s="0" t="s">
         <v>2</v>
@@ -5135,7 +5146,7 @@
     </row>
     <row r="271">
       <c r="A271" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B271" s="0" t="s">
         <v>26</v>
@@ -5149,13 +5160,13 @@
     </row>
     <row r="272">
       <c r="A272" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D272" s="0" t="s">
         <v>2</v>
@@ -5163,13 +5174,13 @@
     </row>
     <row r="273">
       <c r="A273" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D273" s="0" t="s">
         <v>2</v>
@@ -5177,7 +5188,7 @@
     </row>
     <row r="274">
       <c r="A274" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B274" s="0" t="s">
         <v>32</v>
@@ -5191,7 +5202,7 @@
     </row>
     <row r="275">
       <c r="A275" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B275" s="0" t="s">
         <v>34</v>
@@ -5205,7 +5216,7 @@
     </row>
     <row r="276">
       <c r="A276" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B276" s="0" t="s">
         <v>36</v>
@@ -5219,13 +5230,13 @@
     </row>
     <row r="277">
       <c r="A277" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D277" s="0" t="s">
         <v>2</v>
@@ -5233,7 +5244,7 @@
     </row>
     <row r="278">
       <c r="A278" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B278" s="0" t="s">
         <v>40</v>
@@ -5247,7 +5258,7 @@
     </row>
     <row r="279">
       <c r="A279" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B279" s="0" t="s">
         <v>42</v>
@@ -5261,7 +5272,7 @@
     </row>
     <row r="280">
       <c r="A280" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B280" s="0" t="s">
         <v>44</v>
@@ -5275,7 +5286,7 @@
     </row>
     <row r="281">
       <c r="A281" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B281" s="0" t="s">
         <v>46</v>
@@ -5289,7 +5300,7 @@
     </row>
     <row r="282">
       <c r="A282" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B282" s="0" t="s">
         <v>48</v>
@@ -5303,7 +5314,7 @@
     </row>
     <row r="283">
       <c r="A283" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B283" s="0" t="s">
         <v>50</v>
@@ -5317,7 +5328,7 @@
     </row>
     <row r="284">
       <c r="A284" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B284" s="0" t="s">
         <v>52</v>
@@ -5331,7 +5342,7 @@
     </row>
     <row r="285">
       <c r="A285" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B285" s="0" t="s">
         <v>54</v>
@@ -5345,13 +5356,13 @@
     </row>
     <row r="286">
       <c r="A286" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D286" s="0" t="s">
         <v>2</v>
@@ -5359,13 +5370,13 @@
     </row>
     <row r="287">
       <c r="A287" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D287" s="0" t="s">
         <v>2</v>
@@ -5373,13 +5384,13 @@
     </row>
     <row r="288">
       <c r="A288" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D288" s="0" t="s">
         <v>2</v>
@@ -5387,13 +5398,13 @@
     </row>
     <row r="289">
       <c r="A289" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D289" s="0" t="s">
         <v>2</v>
@@ -5401,13 +5412,13 @@
     </row>
     <row r="290">
       <c r="A290" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C290" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D290" s="0" t="s">
         <v>2</v>
@@ -5415,13 +5426,13 @@
     </row>
     <row r="291">
       <c r="A291" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D291" s="0" t="s">
         <v>2</v>
@@ -5429,13 +5440,13 @@
     </row>
     <row r="292">
       <c r="A292" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D292" s="0" t="s">
         <v>2</v>
@@ -5443,13 +5454,13 @@
     </row>
     <row r="293">
       <c r="A293" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D293" s="0" t="s">
         <v>2</v>
@@ -5457,13 +5468,13 @@
     </row>
     <row r="294">
       <c r="A294" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D294" s="0" t="s">
         <v>2</v>
@@ -5471,13 +5482,13 @@
     </row>
     <row r="295">
       <c r="A295" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D295" s="0" t="s">
         <v>2</v>
@@ -5485,13 +5496,13 @@
     </row>
     <row r="296">
       <c r="A296" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C296" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D296" s="0" t="s">
         <v>2</v>
@@ -5499,13 +5510,13 @@
     </row>
     <row r="297">
       <c r="A297" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C297" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D297" s="0" t="s">
         <v>2</v>
@@ -5513,13 +5524,13 @@
     </row>
     <row r="298">
       <c r="A298" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D298" s="0" t="s">
         <v>2</v>
@@ -5527,13 +5538,13 @@
     </row>
     <row r="299">
       <c r="A299" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D299" s="0" t="s">
         <v>2</v>
@@ -5541,13 +5552,13 @@
     </row>
     <row r="300">
       <c r="A300" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D300" s="0" t="s">
         <v>2</v>
@@ -5555,7 +5566,7 @@
     </row>
     <row r="301">
       <c r="A301" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B301" s="0" t="s">
         <v>32</v>
@@ -5569,7 +5580,7 @@
     </row>
     <row r="302">
       <c r="A302" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B302" s="0" t="s">
         <v>34</v>
@@ -5583,7 +5594,7 @@
     </row>
     <row r="303">
       <c r="A303" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B303" s="0" t="s">
         <v>36</v>
@@ -5597,13 +5608,13 @@
     </row>
     <row r="304">
       <c r="A304" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D304" s="0" t="s">
         <v>2</v>
@@ -5611,7 +5622,7 @@
     </row>
     <row r="305">
       <c r="A305" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B305" s="0" t="s">
         <v>40</v>
@@ -5625,7 +5636,7 @@
     </row>
     <row r="306">
       <c r="A306" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B306" s="0" t="s">
         <v>42</v>
@@ -5639,7 +5650,7 @@
     </row>
     <row r="307">
       <c r="A307" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B307" s="0" t="s">
         <v>44</v>
@@ -5653,7 +5664,7 @@
     </row>
     <row r="308">
       <c r="A308" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B308" s="0" t="s">
         <v>46</v>
@@ -5667,7 +5678,7 @@
     </row>
     <row r="309">
       <c r="A309" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B309" s="0" t="s">
         <v>48</v>
@@ -5681,7 +5692,7 @@
     </row>
     <row r="310">
       <c r="A310" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B310" s="0" t="s">
         <v>50</v>
@@ -5695,7 +5706,7 @@
     </row>
     <row r="311">
       <c r="A311" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B311" s="0" t="s">
         <v>52</v>
@@ -5709,7 +5720,7 @@
     </row>
     <row r="312">
       <c r="A312" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B312" s="0" t="s">
         <v>54</v>
@@ -5723,13 +5734,13 @@
     </row>
     <row r="313">
       <c r="A313" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D313" s="0" t="s">
         <v>2</v>
